--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl24-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Ccl24</t>
   </si>
   <si>
@@ -91,7 +94,10 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.11600171815861</v>
+        <v>1.319914</v>
       </c>
       <c r="H2">
-        <v>1.11600171815861</v>
+        <v>3.959742</v>
       </c>
       <c r="I2">
-        <v>0.4578079742096075</v>
+        <v>0.430067032920844</v>
       </c>
       <c r="J2">
-        <v>0.4578079742096075</v>
+        <v>0.4300670329208439</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0818483001015924</v>
+        <v>0.1152486666666667</v>
       </c>
       <c r="N2">
-        <v>0.0818483001015924</v>
+        <v>0.345746</v>
       </c>
       <c r="O2">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270826</v>
       </c>
       <c r="P2">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270825</v>
       </c>
       <c r="Q2">
-        <v>0.09134284354173865</v>
+        <v>0.1521183286146667</v>
       </c>
       <c r="R2">
-        <v>0.09134284354173865</v>
+        <v>1.369064957532</v>
       </c>
       <c r="S2">
-        <v>0.000128337479452389</v>
+        <v>0.0001224329017346948</v>
       </c>
       <c r="T2">
-        <v>0.000128337479452389</v>
+        <v>0.0001224329017346947</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.11600171815861</v>
+        <v>1.319914</v>
       </c>
       <c r="H3">
-        <v>1.11600171815861</v>
+        <v>3.959742</v>
       </c>
       <c r="I3">
-        <v>0.4578079742096075</v>
+        <v>0.430067032920844</v>
       </c>
       <c r="J3">
-        <v>0.4578079742096075</v>
+        <v>0.4300670329208439</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.2624317428959</v>
+        <v>0.006638666666666667</v>
       </c>
       <c r="N3">
-        <v>94.2624317428959</v>
+        <v>0.019916</v>
       </c>
       <c r="O3">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="P3">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="Q3">
-        <v>105.1970357828805</v>
+        <v>0.008762469074666667</v>
       </c>
       <c r="R3">
-        <v>105.1970357828805</v>
+        <v>0.07886222167199999</v>
       </c>
       <c r="S3">
-        <v>0.1478027385042877</v>
+        <v>7.052500017203906E-06</v>
       </c>
       <c r="T3">
-        <v>0.1478027385042877</v>
+        <v>7.052500017203903E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.11600171815861</v>
+        <v>1.319914</v>
       </c>
       <c r="H4">
-        <v>1.11600171815861</v>
+        <v>3.959742</v>
       </c>
       <c r="I4">
-        <v>0.4578079742096075</v>
+        <v>0.430067032920844</v>
       </c>
       <c r="J4">
-        <v>0.4578079742096075</v>
+        <v>0.4300670329208439</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>173.000693656401</v>
+        <v>153.646004</v>
       </c>
       <c r="N4">
-        <v>173.000693656401</v>
+        <v>460.938012</v>
       </c>
       <c r="O4">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="P4">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="Q4">
-        <v>193.0690713631749</v>
+        <v>202.799511723656</v>
       </c>
       <c r="R4">
-        <v>193.0690713631749</v>
+        <v>1825.195605512904</v>
       </c>
       <c r="S4">
-        <v>0.2712637029702398</v>
+        <v>0.1632238068668374</v>
       </c>
       <c r="T4">
-        <v>0.2712637029702398</v>
+        <v>0.1632238068668374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.11600171815861</v>
+        <v>1.319914</v>
       </c>
       <c r="H5">
-        <v>1.11600171815861</v>
+        <v>3.959742</v>
       </c>
       <c r="I5">
-        <v>0.4578079742096075</v>
+        <v>0.430067032920844</v>
       </c>
       <c r="J5">
-        <v>0.4578079742096075</v>
+        <v>0.4300670329208439</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.6258879841602</v>
+        <v>224.6466153333333</v>
       </c>
       <c r="N5">
-        <v>24.6258879841602</v>
+        <v>673.939846</v>
       </c>
       <c r="O5">
-        <v>0.08434364937022384</v>
+        <v>0.5549143553507024</v>
       </c>
       <c r="P5">
-        <v>0.08434364937022384</v>
+        <v>0.5549143553507023</v>
       </c>
       <c r="Q5">
-        <v>27.48253330150425</v>
+        <v>296.5142126310814</v>
       </c>
       <c r="R5">
-        <v>27.48253330150425</v>
+        <v>2668.627913679732</v>
       </c>
       <c r="S5">
-        <v>0.03861319525562762</v>
+        <v>0.2386503703308595</v>
       </c>
       <c r="T5">
-        <v>0.03861319525562762</v>
+        <v>0.2386503703308594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.32170531410826</v>
+        <v>1.319914</v>
       </c>
       <c r="H6">
-        <v>1.32170531410826</v>
+        <v>3.959742</v>
       </c>
       <c r="I6">
-        <v>0.5421920257903926</v>
+        <v>0.430067032920844</v>
       </c>
       <c r="J6">
-        <v>0.5421920257903926</v>
+        <v>0.4300670329208439</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0818483001015924</v>
+        <v>26.38673933333333</v>
       </c>
       <c r="N6">
-        <v>0.0818483001015924</v>
+        <v>79.160218</v>
       </c>
       <c r="O6">
-        <v>0.0002803303714269286</v>
+        <v>0.06517961744154104</v>
       </c>
       <c r="P6">
-        <v>0.0002803303714269286</v>
+        <v>0.06517961744154101</v>
       </c>
       <c r="Q6">
-        <v>0.1081793331950023</v>
+        <v>34.82822666041734</v>
       </c>
       <c r="R6">
-        <v>0.1081793331950023</v>
+        <v>313.454039943756</v>
       </c>
       <c r="S6">
-        <v>0.0001519928919745396</v>
+        <v>0.02803160467999925</v>
       </c>
       <c r="T6">
-        <v>0.0001519928919745396</v>
+        <v>0.02803160467999923</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.32170531410826</v>
+        <v>1.319914</v>
       </c>
       <c r="H7">
-        <v>1.32170531410826</v>
+        <v>3.959742</v>
       </c>
       <c r="I7">
-        <v>0.5421920257903926</v>
+        <v>0.430067032920844</v>
       </c>
       <c r="J7">
-        <v>0.5421920257903926</v>
+        <v>0.4300670329208439</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>94.2624317428959</v>
+        <v>0.02990166666666667</v>
       </c>
       <c r="N7">
-        <v>94.2624317428959</v>
+        <v>0.08970500000000001</v>
       </c>
       <c r="O7">
-        <v>0.3228487637408783</v>
+        <v>7.386207024585807E-05</v>
       </c>
       <c r="P7">
-        <v>0.3228487637408783</v>
+        <v>7.386207024585805E-05</v>
       </c>
       <c r="Q7">
-        <v>124.5871569553526</v>
+        <v>0.03946762845666667</v>
       </c>
       <c r="R7">
-        <v>124.5871569553526</v>
+        <v>0.35520865611</v>
       </c>
       <c r="S7">
-        <v>0.1750460252365907</v>
+        <v>3.176564139602714E-05</v>
       </c>
       <c r="T7">
-        <v>0.1750460252365907</v>
+        <v>3.176564139602712E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.32170531410826</v>
+        <v>1.482823666666667</v>
       </c>
       <c r="H8">
-        <v>1.32170531410826</v>
+        <v>4.448471000000001</v>
       </c>
       <c r="I8">
-        <v>0.5421920257903926</v>
+        <v>0.4831478222582228</v>
       </c>
       <c r="J8">
-        <v>0.5421920257903926</v>
+        <v>0.4831478222582228</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>173.000693656401</v>
+        <v>0.1152486666666667</v>
       </c>
       <c r="N8">
-        <v>173.000693656401</v>
+        <v>0.345746</v>
       </c>
       <c r="O8">
-        <v>0.5925272565174708</v>
+        <v>0.0002846832990270826</v>
       </c>
       <c r="P8">
-        <v>0.5925272565174708</v>
+        <v>0.0002846832990270825</v>
       </c>
       <c r="Q8">
-        <v>228.6559361500804</v>
+        <v>0.1708934504851111</v>
       </c>
       <c r="R8">
-        <v>228.6559361500804</v>
+        <v>1.538041054366</v>
       </c>
       <c r="S8">
-        <v>0.3212635535472311</v>
+        <v>0.0001375441159582214</v>
       </c>
       <c r="T8">
-        <v>0.3212635535472311</v>
+        <v>0.0001375441159582213</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,681 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.482823666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.448471000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="J9">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.006638666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.019916</v>
+      </c>
+      <c r="O9">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="P9">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="Q9">
+        <v>0.009843972048444446</v>
+      </c>
+      <c r="R9">
+        <v>0.088595748436</v>
+      </c>
+      <c r="S9">
+        <v>7.922950991259299E-06</v>
+      </c>
+      <c r="T9">
+        <v>7.922950991259297E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.482823666666667</v>
+      </c>
+      <c r="H10">
+        <v>4.448471000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="J10">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>153.646004</v>
+      </c>
+      <c r="N10">
+        <v>460.938012</v>
+      </c>
+      <c r="O10">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="P10">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="Q10">
+        <v>227.8299310199614</v>
+      </c>
+      <c r="R10">
+        <v>2050.469379179652</v>
+      </c>
+      <c r="S10">
+        <v>0.1833696163428646</v>
+      </c>
+      <c r="T10">
+        <v>0.1833696163428645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.482823666666667</v>
+      </c>
+      <c r="H11">
+        <v>4.448471000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="J11">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>224.6466153333333</v>
+      </c>
+      <c r="N11">
+        <v>673.939846</v>
+      </c>
+      <c r="O11">
+        <v>0.5549143553507024</v>
+      </c>
+      <c r="P11">
+        <v>0.5549143553507023</v>
+      </c>
+      <c r="Q11">
+        <v>333.1113178528296</v>
+      </c>
+      <c r="R11">
+        <v>2998.001860675466</v>
+      </c>
+      <c r="S11">
+        <v>0.2681056623275175</v>
+      </c>
+      <c r="T11">
+        <v>0.2681056623275174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.482823666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.448471000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="J12">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>26.38673933333333</v>
+      </c>
+      <c r="N12">
+        <v>79.160218</v>
+      </c>
+      <c r="O12">
+        <v>0.06517961744154104</v>
+      </c>
+      <c r="P12">
+        <v>0.06517961744154101</v>
+      </c>
+      <c r="Q12">
+        <v>39.1268815696309</v>
+      </c>
+      <c r="R12">
+        <v>352.1419341266781</v>
+      </c>
+      <c r="S12">
+        <v>0.03149139022250463</v>
+      </c>
+      <c r="T12">
+        <v>0.03149139022250461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.482823666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.448471000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="J13">
+        <v>0.4831478222582228</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.02990166666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.08970500000000001</v>
+      </c>
+      <c r="O13">
+        <v>7.386207024585807E-05</v>
+      </c>
+      <c r="P13">
+        <v>7.386207024585805E-05</v>
+      </c>
+      <c r="Q13">
+        <v>0.04433889900611112</v>
+      </c>
+      <c r="R13">
+        <v>0.3990500910550001</v>
+      </c>
+      <c r="S13">
+        <v>3.56862983867702E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.568629838677019E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.32170531410826</v>
-      </c>
-      <c r="H9">
-        <v>1.32170531410826</v>
-      </c>
-      <c r="I9">
-        <v>0.5421920257903926</v>
-      </c>
-      <c r="J9">
-        <v>0.5421920257903926</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>24.6258879841602</v>
-      </c>
-      <c r="N9">
-        <v>24.6258879841602</v>
-      </c>
-      <c r="O9">
-        <v>0.08434364937022384</v>
-      </c>
-      <c r="P9">
-        <v>0.08434364937022384</v>
-      </c>
-      <c r="Q9">
-        <v>32.54816701329928</v>
-      </c>
-      <c r="R9">
-        <v>32.54816701329928</v>
-      </c>
-      <c r="S9">
-        <v>0.04573045411459624</v>
-      </c>
-      <c r="T9">
-        <v>0.04573045411459624</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2663513333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.799054</v>
+      </c>
+      <c r="I14">
+        <v>0.08678514482093329</v>
+      </c>
+      <c r="J14">
+        <v>0.0867851448209333</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1152486666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.345746</v>
+      </c>
+      <c r="O14">
+        <v>0.0002846832990270826</v>
+      </c>
+      <c r="P14">
+        <v>0.0002846832990270825</v>
+      </c>
+      <c r="Q14">
+        <v>0.03069663603155556</v>
+      </c>
+      <c r="R14">
+        <v>0.276269724284</v>
+      </c>
+      <c r="S14">
+        <v>2.470628133416642E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.470628133416641E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2663513333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.799054</v>
+      </c>
+      <c r="I15">
+        <v>0.08678514482093329</v>
+      </c>
+      <c r="J15">
+        <v>0.0867851448209333</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.006638666666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.019916</v>
+      </c>
+      <c r="O15">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="P15">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="Q15">
+        <v>0.001768217718222222</v>
+      </c>
+      <c r="R15">
+        <v>0.015913959464</v>
+      </c>
+      <c r="S15">
+        <v>1.423155435062903E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.423155435062903E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2663513333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.799054</v>
+      </c>
+      <c r="I16">
+        <v>0.08678514482093329</v>
+      </c>
+      <c r="J16">
+        <v>0.0867851448209333</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>153.646004</v>
+      </c>
+      <c r="N16">
+        <v>460.938012</v>
+      </c>
+      <c r="O16">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="P16">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="Q16">
+        <v>40.92381802673867</v>
+      </c>
+      <c r="R16">
+        <v>368.3143622406481</v>
+      </c>
+      <c r="S16">
+        <v>0.0329376600223383</v>
+      </c>
+      <c r="T16">
+        <v>0.0329376600223383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2663513333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.799054</v>
+      </c>
+      <c r="I17">
+        <v>0.08678514482093329</v>
+      </c>
+      <c r="J17">
+        <v>0.0867851448209333</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>224.6466153333333</v>
+      </c>
+      <c r="N17">
+        <v>673.939846</v>
+      </c>
+      <c r="O17">
+        <v>0.5549143553507024</v>
+      </c>
+      <c r="P17">
+        <v>0.5549143553507023</v>
+      </c>
+      <c r="Q17">
+        <v>59.83492552285377</v>
+      </c>
+      <c r="R17">
+        <v>538.514329705684</v>
+      </c>
+      <c r="S17">
+        <v>0.04815832269232555</v>
+      </c>
+      <c r="T17">
+        <v>0.04815832269232555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2663513333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.799054</v>
+      </c>
+      <c r="I18">
+        <v>0.08678514482093329</v>
+      </c>
+      <c r="J18">
+        <v>0.0867851448209333</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>26.38673933333333</v>
+      </c>
+      <c r="N18">
+        <v>79.160218</v>
+      </c>
+      <c r="O18">
+        <v>0.06517961744154104</v>
+      </c>
+      <c r="P18">
+        <v>0.06517961744154101</v>
+      </c>
+      <c r="Q18">
+        <v>7.028143203752444</v>
+      </c>
+      <c r="R18">
+        <v>63.253288833772</v>
+      </c>
+      <c r="S18">
+        <v>0.005656622539037168</v>
+      </c>
+      <c r="T18">
+        <v>0.005656622539037167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2663513333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.799054</v>
+      </c>
+      <c r="I19">
+        <v>0.08678514482093329</v>
+      </c>
+      <c r="J19">
+        <v>0.0867851448209333</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.02990166666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.08970500000000001</v>
+      </c>
+      <c r="O19">
+        <v>7.386207024585807E-05</v>
+      </c>
+      <c r="P19">
+        <v>7.386207024585805E-05</v>
+      </c>
+      <c r="Q19">
+        <v>0.007964348785555556</v>
+      </c>
+      <c r="R19">
+        <v>0.07167913907000001</v>
+      </c>
+      <c r="S19">
+        <v>6.410130463060741E-06</v>
+      </c>
+      <c r="T19">
+        <v>6.410130463060739E-06</v>
       </c>
     </row>
   </sheetData>
